--- a/biology/Botanique/Kaulf/Kaulf..xlsx
+++ b/biology/Botanique/Kaulf/Kaulf..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg Friedrich Kaulfuss, né le 8 avril 1784 à Leipzig et mort le 9 décembre 1830 à Halle, est un botaniste saxon.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg Friedrich Kaulfuss est né à Leipzig le 3 septembre 1784. Il obtint son doctorat à l'université de Halle en 1816. Il y devint professeur de botanique en 1823.
 Il a travaillé sur les échantillons de fougères recueillis par Adalbert de Chamisso durant son voyage autour du monde à bord du vaisseau russe, le Rurik. Ce travail aboutit à la rédaction de son œuvre majeure : Enumeration filicum.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Enumeratio filicum quas in itinere circa terram legit Cl. Adalbertus de Chamisso -  Leipzig : Carl Cnobloch, 1824 (en latin) (numérisé)
 Erfahrungen über das Keimen der Charen (Expériences sur la germination des charas) – Leipzig : Carl Cnobloch, 1825 (en allemand) (numérisé par Google)
@@ -577,7 +593,9 @@
           <t>Documents</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lettre manuscrite de Georg Friedrich Kaulfuss à Sir William Jackson Hooker de 1826 (sur JStor)</t>
         </is>
